--- a/medicine/Bioéthique/ProChoix/ProChoix.xlsx
+++ b/medicine/Bioéthique/ProChoix/ProChoix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ProChoix est une revue et un site web s'intéressant aux questions politiques et religieuses.
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée en novembre 1997 par Fiammetta Venner, Caroline Fourest[1],[2] et Moruni Turlot, la revue ProChoix avait d'abord pour objectif de défendre le droit à l'avortement (son nom  en référence au mouvement pro-choix[3] s'oppose à celui des mouvements pro-vie). Son slogan de présentation était la « Revue du droit de choisir »[2].
-Dans le cadre de cette lutte, elle s'est fréquemment opposée aux religions, tant qu'elles se mêlent de politique[2]. À ce titre, elle a aussi pu être très critique envers l'islam.
-D'après Franck Frégosi, c'est un média actif « dans la dénonciation du différentialisme » auquel s'allient des musulmans laïques[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en novembre 1997 par Fiammetta Venner, Caroline Fourest, et Moruni Turlot, la revue ProChoix avait d'abord pour objectif de défendre le droit à l'avortement (son nom  en référence au mouvement pro-choix s'oppose à celui des mouvements pro-vie). Son slogan de présentation était la « Revue du droit de choisir ».
+Dans le cadre de cette lutte, elle s'est fréquemment opposée aux religions, tant qu'elles se mêlent de politique. À ce titre, elle a aussi pu être très critique envers l'islam.
+D'après Franck Frégosi, c'est un média actif « dans la dénonciation du différentialisme » auquel s'allient des musulmans laïques.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Subventions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ProChoix reçoit, en 2011, une subvention de 12 000 € de la part de la Mairie de Paris[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ProChoix reçoit, en 2011, une subvention de 12 000 € de la part de la Mairie de Paris.
 </t>
         </is>
       </c>
